--- a/input.xlsx
+++ b/input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\costaal\python_projects\videos_Rebecca\Git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\costaal\python_projects\videos_Rebecca\Git\refined-version\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE9A803F-2783-4529-91EA-A72B9CAC918F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9CA05D1-BA90-4230-8F26-556DB5CC9973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1920" windowWidth="21504" windowHeight="10692" xr2:uid="{63BD4508-35C1-4EAA-8BC7-F3AEA2CC9318}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="21504" windowHeight="10692" xr2:uid="{63BD4508-35C1-4EAA-8BC7-F3AEA2CC9318}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,18 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t xml:space="preserve"> Video Title
-</t>
-  </si>
-  <si>
-    <t>Destination Folder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Video URL
-</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>https://www.youtube.com/watch?v=okpwkeclMu8</t>
   </si>
@@ -58,13 +47,16 @@
     <t>Test_1</t>
   </si>
   <si>
-    <t>Test_2</t>
-  </si>
-  <si>
     <t>woman</t>
   </si>
   <si>
-    <t>people</t>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Folder</t>
+  </si>
+  <si>
+    <t>Title</t>
   </si>
 </sst>
 </file>
@@ -526,7 +518,7 @@
   <dimension ref="A1:C117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -536,38 +528,34 @@
     <col min="3" max="3" width="44.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C2" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
@@ -1140,6 +1128,10 @@
       <c r="C117" s="5"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{F04B5E8E-9DD8-4606-99FE-9C698B0C8586}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{E1A9BF75-3214-4DED-BDD3-F4B1F36B4BB6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>